--- a/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/start_logo1/logo_data/animation.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/th9958/start_logo1/logo_data/animation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
   <si>
     <t>シグモイド</t>
     <phoneticPr fontId="1"/>
@@ -60,12 +60,66 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>下端</t>
+    <rPh sb="0" eb="2">
+      <t>シタハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡大率</t>
+    <rPh sb="0" eb="3">
+      <t>カクダイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128倍</t>
+    <rPh sb="3" eb="4">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFFSET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数化</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MGY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>db</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +132,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +167,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,6 +779,1086 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99737018277250344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98950562098130834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97648070388765573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9584184823246249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93548928378863905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90790879739835084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87593565218237468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83986851833857035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80004276690687082</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75682672864065703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71061759768008537</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66183702986330029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6109264891045848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55834239817720976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50455115242710469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45002405638511472</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.395232243924033</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34064164251536799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28670804128368982</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23387232094715982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18255590139516678</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13315645962104405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6043967041852923E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.155709094885441E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.8997686524020982E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.8360391645096296E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.3296712665282163E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.10462293255939178</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.13219565273443096</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.15591488063143982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.17572428336742274</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.19161092391489451</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.20360448929419891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.21177602653417171</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.21623620818304484</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.21713315484669274</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.21464984752323249</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2090011673252527</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.20043060447387023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.18920668216016426</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17561914395516684</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.1599749558740135</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.14259417593666573</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.12380574509977517</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.10394325375429327</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.3340737593445652E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-6.2328555567297307E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-4.1229400874221278E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.0354493525969523E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.8997686524020982E-17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.66338339488044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.65671948560747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.98953009761993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.67756573755199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.7426283249458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.21232606698891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112.11976347934396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107.503170347337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>102.40547416407946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.8738212660041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.959052503050927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.715139822502437</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78.198590605386855</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.46782696668285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.5825475106694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.603079217294685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.589727222276224</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.602130241967103</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.698629284312297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.935657081236457</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.367155378581348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.044026831493639</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.013627781357174</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3193076414533644</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9917038750746857E-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.9101301305723259</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9.3819792211561168</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-13.391735367602148</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-16.921043550007163</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-19.957104720824297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-22.492708271030111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-24.526198261106497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-26.061374629657461</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-27.107331396373979</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-27.67823464742974</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-27.793043820376671</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-27.475180482973759</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-26.752149417632346</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-25.65511737265539</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-24.218455316501025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-22.479250426261355</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-20.476794351873728</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-18.252054519893214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-15.847135372771222</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-13.304736480549538</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-10.667614411961043</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.9780551126140553</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.2773633119003236</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.6053751713240989</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.9917038750746857E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255.66338339488044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254.65671948560748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252.98953009761993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.67756573755199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247.7426283249458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244.21232606698891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240.11976347934396</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235.503170347337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230.40547416407946</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224.87382126600409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218.95905250305094</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.71513982250244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206.19859060538687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199.46782696668285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192.5825475106694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185.60307921729469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178.58972722227622</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171.6021302419671</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164.69862928431229</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157.93565708123646</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151.36715537858134</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145.04402683149362</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139.01362778135717</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133.31930764145338</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123.08986986942767</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118.61802077884388</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114.60826463239785</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111.07895644999283</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108.0428952791757</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105.50729172896989</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>103.4738017388935</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101.93862537034254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100.89266860362602</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100.32176535257025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100.20695617962333</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100.52481951702624</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101.24785058236765</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102.34488262734462</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103.78154468349898</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105.52074957373864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>107.52320564812626</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.74794548010678</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>112.15286462722878</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>114.69526351945046</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117.33238558803896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>120.02194488738594</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122.72263668809967</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>125.3946248286759</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -722,11 +1868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="544732536"/>
-        <c:axId val="544730576"/>
+        <c:axId val="345892240"/>
+        <c:axId val="345893808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="544732536"/>
+        <c:axId val="345892240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +1914,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544730576"/>
+        <c:crossAx val="345893808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -776,7 +1922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544730576"/>
+        <c:axId val="345893808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +1973,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544732536"/>
+        <c:crossAx val="345892240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1436,16 +2582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>49866</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>634814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71158</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1730,15 +2876,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G53"/>
+  <dimension ref="B2:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -1754,8 +2903,29 @@
       <c r="G2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1779,8 +2949,35 @@
         <f>INT(F3)</f>
         <v>-120</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <f>G3+128</f>
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>I3*128</f>
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <f>J3+128</f>
+        <v>256</v>
+      </c>
+      <c r="L3">
+        <f>INT(K3)</f>
+        <v>256</v>
+      </c>
+      <c r="M3">
+        <f>H3-L3</f>
+        <v>-248</v>
+      </c>
+      <c r="N3">
+        <f>MOD(L3,256)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1804,8 +3001,36 @@
         <f t="shared" ref="G4:G53" si="4">INT(F4)</f>
         <v>-119</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <f t="shared" ref="H4:H53" si="5">G4+128</f>
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <f>SIN(B4/50*2*PI())/(B4/50*2*PI())</f>
+        <v>0.99737018277250344</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J53" si="6">I4*128</f>
+        <v>127.66338339488044</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K53" si="7">J4+128</f>
+        <v>255.66338339488044</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L53" si="8">INT(K4)</f>
+        <v>255</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M53" si="9">H4-L4</f>
+        <v>-246</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N53" si="10">MOD(L4,256)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1829,8 +3054,36 @@
         <f t="shared" si="4"/>
         <v>-118</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I53" si="11">SIN(B5/50*2*PI())/(B5/50*2*PI())</f>
+        <v>0.98950562098130834</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="6"/>
+        <v>126.65671948560747</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>254.65671948560748</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="9"/>
+        <v>-244</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="10"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1854,8 +3107,36 @@
         <f t="shared" si="4"/>
         <v>-117</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="11"/>
+        <v>0.97648070388765573</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="6"/>
+        <v>124.98953009761993</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="7"/>
+        <v>252.98953009761993</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>252</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="9"/>
+        <v>-241</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="10"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1879,8 +3160,36 @@
         <f t="shared" si="4"/>
         <v>-116</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="11"/>
+        <v>0.9584184823246249</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>122.67756573755199</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>250.67756573755199</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>-238</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1904,8 +3213,36 @@
         <f t="shared" si="4"/>
         <v>-114</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="11"/>
+        <v>0.93548928378863905</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>119.7426283249458</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>247.7426283249458</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>-233</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="10"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1929,8 +3266,36 @@
         <f t="shared" si="4"/>
         <v>-113</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="11"/>
+        <v>0.90790879739835084</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>116.21232606698891</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>244.21232606698891</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="9"/>
+        <v>-229</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="10"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1954,8 +3319,36 @@
         <f t="shared" si="4"/>
         <v>-111</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="11"/>
+        <v>0.87593565218237468</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>112.11976347934396</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>240.11976347934396</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>-223</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1979,8 +3372,36 @@
         <f t="shared" si="4"/>
         <v>-109</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="11"/>
+        <v>0.83986851833857035</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>107.503170347337</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>235.503170347337</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="9"/>
+        <v>-216</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="10"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2004,8 +3425,36 @@
         <f t="shared" si="4"/>
         <v>-107</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="11"/>
+        <v>0.80004276690687082</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>102.40547416407946</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>230.40547416407946</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>-209</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2029,8 +3478,36 @@
         <f t="shared" si="4"/>
         <v>-104</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="11"/>
+        <v>0.75682672864065703</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>96.8738212660041</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>224.87382126600409</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>-200</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2054,8 +3531,36 @@
         <f t="shared" si="4"/>
         <v>-101</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="11"/>
+        <v>0.71061759768008537</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>90.959052503050927</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>218.95905250305094</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>218</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>-191</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="10"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2079,8 +3584,36 @@
         <f t="shared" si="4"/>
         <v>-99</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>0.66183702986330029</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>84.715139822502437</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>212.71513982250244</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>-183</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="10"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
       </c>
@@ -2104,8 +3637,36 @@
         <f t="shared" si="4"/>
         <v>-96</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="11"/>
+        <v>0.6109264891045848</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>78.198590605386855</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>206.19859060538687</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="9"/>
+        <v>-174</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
@@ -2129,8 +3690,36 @@
         <f t="shared" si="4"/>
         <v>-92</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="11"/>
+        <v>0.55834239817720976</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>71.46782696668285</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>199.46782696668285</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="9"/>
+        <v>-163</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="10"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
@@ -2154,8 +3743,36 @@
         <f t="shared" si="4"/>
         <v>-89</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="11"/>
+        <v>0.50455115242710469</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>64.5825475106694</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="7"/>
+        <v>192.5825475106694</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="9"/>
+        <v>-153</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
@@ -2179,8 +3796,36 @@
         <f t="shared" si="4"/>
         <v>-85</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="11"/>
+        <v>0.45002405638511472</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>57.603079217294685</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>185.60307921729469</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="9"/>
+        <v>-142</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="10"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
@@ -2204,8 +3849,36 @@
         <f t="shared" si="4"/>
         <v>-81</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>0.395232243924033</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>50.589727222276224</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>178.58972722227622</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="9"/>
+        <v>-131</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
@@ -2229,8 +3902,36 @@
         <f t="shared" si="4"/>
         <v>-77</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>0.34064164251536799</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>43.602130241967103</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>171.6021302419671</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="9"/>
+        <v>-120</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
@@ -2254,8 +3955,36 @@
         <f t="shared" si="4"/>
         <v>-72</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>0.28670804128368982</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>36.698629284312297</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="7"/>
+        <v>164.69862928431229</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="9"/>
+        <v>-108</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="10"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2279,8 +4008,36 @@
         <f t="shared" si="4"/>
         <v>-68</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>0.23387232094715982</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>29.935657081236457</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>157.93565708123646</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>-97</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>21</v>
       </c>
@@ -2304,8 +4061,36 @@
         <f t="shared" si="4"/>
         <v>-63</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>0.18255590139516678</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>23.367155378581348</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>151.36715537858134</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>-86</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>22</v>
       </c>
@@ -2329,8 +4114,36 @@
         <f t="shared" si="4"/>
         <v>-58</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>0.13315645962104405</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>17.044026831493639</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>145.04402683149362</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>-75</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>23</v>
       </c>
@@ -2354,8 +4167,36 @@
         <f t="shared" si="4"/>
         <v>-53</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>8.6043967041852923E-2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>11.013627781357174</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>139.01362778135717</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>-64</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>24</v>
       </c>
@@ -2379,8 +4220,36 @@
         <f t="shared" si="4"/>
         <v>-48</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>4.155709094885441E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>5.3193076414533644</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>133.31930764145338</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="9"/>
+        <v>-53</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>25</v>
       </c>
@@ -2404,8 +4273,36 @@
         <f t="shared" si="4"/>
         <v>-42</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>3.8997686524020982E-17</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>4.9917038750746857E-15</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>-42</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>26</v>
       </c>
@@ -2429,8 +4326,36 @@
         <f t="shared" si="4"/>
         <v>-37</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="11"/>
+        <v>-3.8360391645096296E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>-4.9101301305723259</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>123.08986986942767</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>123</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>-32</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
@@ -2454,8 +4379,36 @@
         <f t="shared" si="4"/>
         <v>-32</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="11"/>
+        <v>-7.3296712665282163E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>-9.3819792211561168</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>118.61802077884388</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>118</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>-22</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>28</v>
       </c>
@@ -2479,8 +4432,36 @@
         <f t="shared" si="4"/>
         <v>-27</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>101</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="11"/>
+        <v>-0.10462293255939178</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>-13.391735367602148</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>114.60826463239785</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="9"/>
+        <v>-13</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>29</v>
       </c>
@@ -2504,8 +4485,36 @@
         <f t="shared" si="4"/>
         <v>-22</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>-0.13219565273443096</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>-16.921043550007163</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>111.07895644999283</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>30</v>
       </c>
@@ -2529,8 +4538,36 @@
         <f t="shared" si="4"/>
         <v>-17</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>-0.15591488063143982</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>-19.957104720824297</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="7"/>
+        <v>108.0428952791757</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>108</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>31</v>
       </c>
@@ -2554,8 +4591,36 @@
         <f t="shared" si="4"/>
         <v>-13</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>115</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>-0.17572428336742274</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="6"/>
+        <v>-22.492708271030111</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="7"/>
+        <v>105.50729172896989</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>32</v>
       </c>
@@ -2579,8 +4644,36 @@
         <f t="shared" si="4"/>
         <v>-8</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>-0.19161092391489451</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="6"/>
+        <v>-24.526198261106497</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>103.4738017388935</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>33</v>
       </c>
@@ -2604,8 +4697,36 @@
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="11"/>
+        <v>-0.20360448929419891</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>-26.061374629657461</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="7"/>
+        <v>101.93862537034254</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>34</v>
       </c>
@@ -2629,8 +4750,36 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>-0.21177602653417171</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>-27.107331396373979</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="7"/>
+        <v>100.89266860362602</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>35</v>
       </c>
@@ -2654,8 +4803,36 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>-0.21623620818304484</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>-27.67823464742974</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="7"/>
+        <v>100.32176535257025</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>36</v>
       </c>
@@ -2679,8 +4856,36 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>-0.21713315484669274</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>-27.793043820376671</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>100.20695617962333</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>37</v>
       </c>
@@ -2704,8 +4909,36 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>-0.21464984752323249</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>-27.475180482973759</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>100.52481951702624</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>38</v>
       </c>
@@ -2729,8 +4962,36 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>-0.2090011673252527</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>-26.752149417632346</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>101.24785058236765</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="10"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>39</v>
       </c>
@@ -2754,8 +5015,36 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>-0.20043060447387023</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>-25.65511737265539</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>102.34488262734462</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>102</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>40</v>
       </c>
@@ -2779,8 +5068,36 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="11"/>
+        <v>-0.18920668216016426</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>-24.218455316501025</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>103.78154468349898</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>103</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>41</v>
       </c>
@@ -2804,8 +5121,36 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="11"/>
+        <v>-0.17561914395516684</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>-22.479250426261355</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>105.52074957373864</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>105</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>42</v>
       </c>
@@ -2829,8 +5174,36 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="11"/>
+        <v>-0.1599749558740135</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>-20.476794351873728</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>107.52320564812626</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>43</v>
       </c>
@@ -2854,8 +5227,36 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="11"/>
+        <v>-0.14259417593666573</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>-18.252054519893214</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>109.74794548010678</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>44</v>
       </c>
@@ -2879,8 +5280,36 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="11"/>
+        <v>-0.12380574509977517</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>-15.847135372771222</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>112.15286462722878</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>112</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="10"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>45</v>
       </c>
@@ -2904,8 +5333,36 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="11"/>
+        <v>-0.10394325375429327</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>-13.304736480549538</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>114.69526351945046</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>46</v>
       </c>
@@ -2929,8 +5386,36 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="11"/>
+        <v>-8.3340737593445652E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>-10.667614411961043</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>117.33238558803896</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="10"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>47</v>
       </c>
@@ -2954,8 +5439,36 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="11"/>
+        <v>-6.2328555567297307E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>-7.9780551126140553</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>120.02194488738594</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>48</v>
       </c>
@@ -2979,8 +5492,36 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>-4.1229400874221278E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>-5.2773633119003236</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>122.72263668809967</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>122</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>49</v>
       </c>
@@ -3004,8 +5545,36 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="11"/>
+        <v>-2.0354493525969523E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>-2.6053751713240989</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>125.3946248286759</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>50</v>
       </c>
@@ -3028,6 +5597,850 @@
       <c r="G53">
         <f t="shared" si="4"/>
         <v>35</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="11"/>
+        <v>-3.8997686524020982E-17</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>-4.9917038750746857E-15</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <f>M3</f>
+        <v>-248</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56">
+        <f>N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C106" si="12">M4</f>
+        <v>-246</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:F106" si="13">N4</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="12"/>
+        <v>-244</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="13"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="12"/>
+        <v>-241</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="13"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="12"/>
+        <v>-238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="12"/>
+        <v>-233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="13"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="12"/>
+        <v>-229</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="13"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="12"/>
+        <v>-223</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="12"/>
+        <v>-216</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="13"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="12"/>
+        <v>-209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="13"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="12"/>
+        <v>-200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="13"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="12"/>
+        <v>-191</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="13"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="12"/>
+        <v>-183</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="13"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="12"/>
+        <v>-174</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="13"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="12"/>
+        <v>-163</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="12"/>
+        <v>-153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="12"/>
+        <v>-142</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>-131</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="13"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>-120</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="13"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="12"/>
+        <v>-108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="13"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="12"/>
+        <v>-97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="12"/>
+        <v>-86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="13"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="12"/>
+        <v>-75</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="12"/>
+        <v>-64</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="12"/>
+        <v>-53</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="13"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="12"/>
+        <v>-42</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="12"/>
+        <v>-32</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="13"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="12"/>
+        <v>-22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="13"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="12"/>
+        <v>-13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="13"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="13"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="13"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="13"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="12"/>
+        <v>43</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="13"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="13"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="13"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="13"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="13"/>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
